--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1617509.63849498</v>
+        <v>1615257.558783772</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283195</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>138.8437204680918</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>374.3724651321501</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.7077349259112</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>9.90890202398988</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>111.6770057037254</v>
       </c>
       <c r="W5" t="n">
-        <v>337.3754951935094</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>18.47345407832247</v>
+        <v>225.48552678711</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>94.8127598026153</v>
+        <v>112.0789181391335</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991711</v>
+        <v>63.1335566855015</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>136.5667167289882</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833637</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365929</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428207</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699769</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016491</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>253.2918698186448</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>122.6028762599955</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>83.06560892427694</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.405450327293</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F25" t="n">
-        <v>42.53134576113725</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016457</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>216.7094028874705</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D37" t="n">
-        <v>148.0280580960833</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>101.9154861872836</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1320.35562273557</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.35562273557</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1320.35562273557</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>372.8549345700854</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U4" t="n">
-        <v>1735.608663915319</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V4" t="n">
-        <v>1480.924175709432</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W4" t="n">
-        <v>1480.924175709432</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X4" t="n">
-        <v>1252.934624811415</v>
+        <v>554.5033994003252</v>
       </c>
       <c r="Y4" t="n">
-        <v>1252.934624811415</v>
+        <v>554.5033994003252</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1320.35562273557</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2643.001872527934</v>
       </c>
       <c r="W5" t="n">
-        <v>2083.960712972462</v>
+        <v>2290.233217257819</v>
       </c>
       <c r="X5" t="n">
-        <v>1710.494954711382</v>
+        <v>1916.76745899674</v>
       </c>
       <c r="Y5" t="n">
-        <v>1320.35562273557</v>
+        <v>1916.76745899674</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
@@ -4656,40 +4656,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>922.6774975139006</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
         <v>315.6219318279954</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1405.351536617805</v>
+        <v>1387.934317044728</v>
       </c>
       <c r="V7" t="n">
-        <v>1150.667048411918</v>
+        <v>1133.249828838841</v>
       </c>
       <c r="W7" t="n">
-        <v>1150.667048411918</v>
+        <v>843.8326588018809</v>
       </c>
       <c r="X7" t="n">
-        <v>922.6774975139006</v>
+        <v>615.8431079038636</v>
       </c>
       <c r="Y7" t="n">
-        <v>922.6774975139006</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>1976.204921733553</v>
+        <v>1958.764357757271</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>1958.764357757271</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4899,7 +4899,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>278.196479393871</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>278.196479393871</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>278.196479393871</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>130.2833858114778</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>130.2833858114778</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>459.8449442241107</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,64 +5027,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>114.2598873597761</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>448.1846595309966</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>943.5102657467552</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>557.5558870561823</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C13" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282754</v>
+        <v>194.8007783998268</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797191</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.793114229131</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468418</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963486</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>261.012762333092</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>261.012762333092</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>261.012762333092</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,64 +5501,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703778</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969299</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>197.0043242297667</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U19" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,40 +5762,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>590.9096564684978</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1815.886107649656</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2367.795837888943</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400664</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121596</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121596</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121596</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854701</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648814</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138363</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703062</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273906</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>527.7722521572603</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6364,16 +6364,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,7 +6473,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>119.2902967703784</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235164</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235164</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2264.108249235164</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>2009.423761029277</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1720.006590992317</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,25 +6777,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M36" t="n">
         <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>634.334587849125</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>734.6461798836013</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>734.6461798836013</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.26526345294906</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>46.4596884482328</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393028</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>43.26526345295439</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>32.8926045705993</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>62.3554390986543</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345294987</v>
       </c>
       <c r="F25" t="n">
-        <v>102.889702261794</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>9.000252501566649</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24974,7 +24974,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5874149221290565</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>44.51847645928558</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>901280.0268892777</v>
+        <v>901280.0268892776</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892775</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>901280.0268892777</v>
+        <v>901280.0268892776</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892776</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="E2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="F2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="H2" t="n">
         <v>524645.2897985037</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="K2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="J2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>524645.2897985037</v>
       </c>
-      <c r="L2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="M2" t="n">
-        <v>524645.2897985041</v>
-      </c>
       <c r="N2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820638</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26445,7 +26445,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685503</v>
       </c>
       <c r="M4" t="n">
         <v>14216.75207685505</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-996405.3227254079</v>
       </c>
       <c r="C6" t="n">
-        <v>332339.4230021847</v>
+        <v>332339.4230021846</v>
       </c>
       <c r="D6" t="n">
-        <v>332339.4230021845</v>
+        <v>332339.4230021846</v>
       </c>
       <c r="E6" t="n">
-        <v>83893.54609038602</v>
+        <v>83858.80816495074</v>
       </c>
       <c r="F6" t="n">
-        <v>409306.0078977418</v>
+        <v>409271.269972306</v>
       </c>
       <c r="G6" t="n">
-        <v>409306.0078977416</v>
+        <v>409271.2699723058</v>
       </c>
       <c r="H6" t="n">
-        <v>409306.0078977418</v>
+        <v>409271.2699723059</v>
       </c>
       <c r="I6" t="n">
-        <v>409306.0078977417</v>
+        <v>409271.2699723062</v>
       </c>
       <c r="J6" t="n">
-        <v>191774.8055004645</v>
+        <v>191740.0675750287</v>
       </c>
       <c r="K6" t="n">
-        <v>409306.0078977415</v>
+        <v>409271.269972306</v>
       </c>
       <c r="L6" t="n">
-        <v>409306.0078977419</v>
+        <v>409271.2699723059</v>
       </c>
       <c r="M6" t="n">
-        <v>324250.97996223</v>
+        <v>324216.242036794</v>
       </c>
       <c r="N6" t="n">
-        <v>409306.0078977418</v>
+        <v>409271.269972306</v>
       </c>
       <c r="O6" t="n">
-        <v>409306.0078977418</v>
+        <v>409271.269972306</v>
       </c>
       <c r="P6" t="n">
-        <v>409306.0078977418</v>
+        <v>409271.269972306</v>
       </c>
     </row>
   </sheetData>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,10 +26984,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>226.4291713029158</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.86547352390352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.12424525602606</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>157.337919074638</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>216.0752527664095</v>
       </c>
       <c r="W5" t="n">
-        <v>11.86547352390363</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>267.7383841272904</v>
+        <v>60.72631141850283</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>274.9183408758537</v>
+        <v>257.6521825393355</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911111</v>
+        <v>102.8922515735267</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-1.885306725550132e-12</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29010,7 +29010,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29718,7 +29718,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>-1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30390,7 +30390,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>145.7021085929668</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565758</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>428.7353800421389</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179097</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338196</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>321.1112257697157</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M24" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32956,7 +32956,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
         <v>926.5868626460027</v>
@@ -33020,31 +33020,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>707.690770008913</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>162.5000833330452</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>285.8867128925984</v>
+        <v>502.5232631188757</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>290.6810969936916</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>285.8867128925984</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>289.7537444526272</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>198.560797075695</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34217,31 +34217,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>362.5355639238077</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,13 +34436,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M45" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>18.86448192630008</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121313</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>297.3936679588056</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.7309431539454</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M24" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>576.3490579255797</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>23.94570355317107</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>151.9123054782682</v>
+        <v>368.5488557045454</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>159.3393849103583</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>151.9123054782682</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>151.9123054782682</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>222.5537898377862</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
